--- a/result_manuscriptIII.xlsx
+++ b/result_manuscriptIII.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA7BC0-778D-466D-92D6-540CA22014A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F060248-49A5-4FB0-97DD-2DF64601A33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3613" yWindow="3233" windowWidth="18851" windowHeight="11023" activeTab="1" xr2:uid="{370348AB-59FA-4064-88BB-72F0F661FEE8}"/>
+    <workbookView xWindow="1898" yWindow="1898" windowWidth="18851" windowHeight="11023" activeTab="1" xr2:uid="{370348AB-59FA-4064-88BB-72F0F661FEE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3455638-0F3D-478F-9F24-623DAEA5BA5C}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>

--- a/result_manuscriptIII.xlsx
+++ b/result_manuscriptIII.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F060248-49A5-4FB0-97DD-2DF64601A33F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76472638-0EF6-4911-BE33-B252DA6AB119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1898" yWindow="1898" windowWidth="18851" windowHeight="11023" activeTab="1" xr2:uid="{370348AB-59FA-4064-88BB-72F0F661FEE8}"/>
+    <workbookView xWindow="1898" yWindow="1898" windowWidth="18851" windowHeight="11023" activeTab="1" xr2:uid="{47E7848B-34EC-49A6-998D-9AC1D627B3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="19812000" sheetId="2" r:id="rId2"/>
+    <sheet name="19805000" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,10 +46,10 @@
     <t>AD test, normality</t>
   </si>
   <si>
-    <t>Intensity (mV^2/s), median</t>
-  </si>
-  <si>
-    <t>Intensity (mV^2/s), IQR</t>
+    <t>Power (mV^2/s), median</t>
+  </si>
+  <si>
+    <t>Power (mV^2/s), IQR</t>
   </si>
   <si>
     <t>Light-triggered</t>
@@ -121,10 +121,10 @@
     <t>Group</t>
   </si>
   <si>
-    <t>one-way ANOVA, intensity</t>
-  </si>
-  <si>
-    <t>Multiple Comparison (Tukey-Kramer method), intensity</t>
+    <t>one-way ANOVA, power</t>
+  </si>
+  <si>
+    <t>Multiple Comparison (Tukey-Kramer method), power</t>
   </si>
   <si>
     <t>one-way ANOVA, dominant frequency</t>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368ADD51-798A-44B4-B52D-E5ED55FD84F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E24766-3465-4683-8C34-CDF2C4BE43EB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3455638-0F3D-478F-9F24-623DAEA5BA5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF4AE5E-3D36-4E01-8D19-4FE6EE8834FF}">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
@@ -501,10 +501,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -549,37 +545,37 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>25.773408000000018</v>
+        <v>13.349005000000034</v>
       </c>
       <c r="C2">
-        <v>4.6849440000001437</v>
+        <v>5.0429759999997259</v>
       </c>
       <c r="D2">
-        <v>0.10813052312387034</v>
+        <v>0.1346693543526121</v>
       </c>
       <c r="E2">
-        <v>427718.4671063642</v>
+        <v>295335.53033840557</v>
       </c>
       <c r="F2">
-        <v>260160.80614705588</v>
+        <v>154868.4657022437</v>
       </c>
       <c r="G2">
-        <v>6.6579248980920658E-2</v>
+        <v>0.54783149352144311</v>
       </c>
       <c r="H2">
-        <v>2.7279931259552415E-2</v>
+        <v>0.20543240654644268</v>
       </c>
       <c r="I2">
-        <v>15.25927734375</v>
+        <v>12.716064453125</v>
       </c>
       <c r="J2">
-        <v>1.2716064453125</v>
+        <v>10.490753173828125</v>
       </c>
       <c r="K2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.10428483665837576</v>
       </c>
       <c r="L2">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -587,37 +583,28 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>26.859647999999652</v>
+        <v>63.321023999999852</v>
       </c>
       <c r="C3">
-        <v>2.9741279999996095</v>
-      </c>
-      <c r="D3">
-        <v>5.5616357874621707E-2</v>
+        <v>87.460271999999918</v>
       </c>
       <c r="E3">
-        <v>414085.68714779901</v>
+        <v>130799.00983475964</v>
       </c>
       <c r="F3">
-        <v>125928.80908454815</v>
-      </c>
-      <c r="G3">
-        <v>0.5797927609451361</v>
+        <v>116988.38552699925</v>
       </c>
       <c r="H3">
-        <v>5.6066262743570405E-14</v>
+        <v>7.1529707079602822E-3</v>
       </c>
       <c r="I3">
-        <v>16.212982177734375</v>
+        <v>16.848785400390625</v>
       </c>
       <c r="J3">
-        <v>7.8680648803710938</v>
-      </c>
-      <c r="K3">
-        <v>6.5940482305243589E-2</v>
+        <v>5.72222900390625</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -625,37 +612,37 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>24.66172799999913</v>
+        <v>21.63110400000005</v>
       </c>
       <c r="C4">
-        <v>5.5079279999995379</v>
+        <v>3.5627520000005006</v>
       </c>
       <c r="D4">
-        <v>0.3606006889232749</v>
+        <v>0.85073937132171151</v>
       </c>
       <c r="E4">
-        <v>295410.47548677668</v>
+        <v>69455.789809561044</v>
       </c>
       <c r="F4">
-        <v>72611.511211585486</v>
+        <v>4907.3794468311535</v>
       </c>
       <c r="G4">
-        <v>0.38094228659085061</v>
+        <v>0.61070674819712234</v>
       </c>
       <c r="H4">
-        <v>1.3946154254762533E-6</v>
+        <v>7.8273477437384997E-4</v>
       </c>
       <c r="I4">
-        <v>18.120391845703125</v>
+        <v>10.80865478515625</v>
       </c>
       <c r="J4">
-        <v>6.1196060180664063</v>
+        <v>2.3842620849609375</v>
       </c>
       <c r="K4">
-        <v>0.97235305289678287</v>
+        <v>0.14941531559866775</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -692,31 +679,31 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>8.0646472513673989E-2</v>
+        <v>4.0271940537589179E-3</v>
       </c>
       <c r="C6">
-        <v>0.33069828722002637</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.35177865612648224</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>0.14135208910397801</v>
+        <v>0.15369438002288383</v>
       </c>
       <c r="F6">
-        <v>0.30039525691699598</v>
+        <v>0.64285714285714279</v>
       </c>
       <c r="G6">
-        <v>0.10935441370223979</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I6">
-        <v>0.14803906926700378</v>
+        <v>0.61866473176178638</v>
       </c>
       <c r="J6">
-        <v>0.29776021080368908</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="K6">
-        <v>4.4795783926218712E-2</v>
+        <v>-0.45238095238095238</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -749,19 +736,19 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>54.925018084178589</v>
+        <v>14305.845705040392</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>27.462509042089295</v>
+        <v>7152.9228525201961</v>
       </c>
       <c r="E10">
-        <v>2.2354627187389444</v>
+        <v>16.508662104615993</v>
       </c>
       <c r="F10">
-        <v>0.11522874717500298</v>
+        <v>6.9944429386484559E-5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -769,13 +756,13 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>786.23569248571584</v>
+        <v>8232.3772415139028</v>
       </c>
       <c r="C11">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>12.28493269508931</v>
+        <v>433.28301271125804</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -783,10 +770,10 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>841.16071056989449</v>
+        <v>22538.222946554295</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -813,16 +800,16 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>-4.2402331190250635</v>
+        <v>-109.43190018609994</v>
       </c>
       <c r="D16">
-        <v>-1.9558632727274237</v>
+        <v>-75.788774857142613</v>
       </c>
       <c r="E16">
-        <v>0.32850657357021573</v>
+        <v>-42.145649528185281</v>
       </c>
       <c r="F16">
-        <v>0.10768796909335021</v>
+        <v>4.639545227236308E-5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -833,16 +820,16 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>-3.657029026898162</v>
+        <v>-35.470401833081965</v>
       </c>
       <c r="D17">
-        <v>-0.57403636363613941</v>
+        <v>-7.920230857142764</v>
       </c>
       <c r="E17">
-        <v>2.5089562996258832</v>
+        <v>19.629940118796441</v>
       </c>
       <c r="F17">
-        <v>0.89600813382789601</v>
+        <v>0.74880708738790736</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,16 +840,16 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>-1.546141043962014</v>
+        <v>29.250001246734406</v>
       </c>
       <c r="D18">
-        <v>1.3818269090912843</v>
+        <v>67.868543999999844</v>
       </c>
       <c r="E18">
-        <v>4.3097948621445825</v>
+        <v>106.48708675326529</v>
       </c>
       <c r="F18">
-        <v>0.49787264177296109</v>
+        <v>7.4209148172221795E-4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -895,19 +882,19 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>125715924169.00975</v>
+        <v>197212821663.99551</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>62857962084.504875</v>
+        <v>98606410831.997757</v>
       </c>
       <c r="E22">
-        <v>4.9369436035761352</v>
+        <v>13.436592208563308</v>
       </c>
       <c r="F22">
-        <v>1.0140250974827073E-2</v>
+        <v>2.3086057016801487E-4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -915,13 +902,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>814858320539.5072</v>
+        <v>139434298274.97025</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>12732161258.4298</v>
+        <v>7338647277.6300125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -929,10 +916,10 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>940574244708.51697</v>
+        <v>336647119938.96576</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -959,16 +946,16 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>-75891.991755188617</v>
+        <v>-10407.900417154189</v>
       </c>
       <c r="D28">
-        <v>-2350.727201330883</v>
+        <v>128050.24477535408</v>
       </c>
       <c r="E28">
-        <v>71190.537352526851</v>
+        <v>266508.38996786234</v>
       </c>
       <c r="F28">
-        <v>0.99676231003021887</v>
+        <v>7.2881588095692007E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -979,16 +966,16 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>16262.765931619622</v>
+        <v>110605.65395859678</v>
       </c>
       <c r="D29">
-        <v>115514.28574747598</v>
+        <v>223988.2703406057</v>
       </c>
       <c r="E29">
-        <v>214765.80556333234</v>
+        <v>337370.88672261464</v>
       </c>
       <c r="F29">
-        <v>1.8636887928825008E-2</v>
+        <v>2.1553413097430418E-4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -999,16 +986,16 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>23604.240688265389</v>
+        <v>-62996.429761715175</v>
       </c>
       <c r="D30">
-        <v>117865.01294880686</v>
+        <v>95938.025565251621</v>
       </c>
       <c r="E30">
-        <v>212125.78520934834</v>
+        <v>254872.48089221842</v>
       </c>
       <c r="F30">
-        <v>1.0585488305823954E-2</v>
+        <v>0.29819585477497634</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1041,19 +1028,19 @@
         <v>24</v>
       </c>
       <c r="B34">
-        <v>9.1919859062820652</v>
+        <v>68.465184405113433</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>4.5959929531410326</v>
+        <v>34.232592202556717</v>
       </c>
       <c r="E34">
-        <v>0.16710166373383514</v>
+        <v>1.1948483361643591</v>
       </c>
       <c r="F34">
-        <v>0.84648154402203524</v>
+        <v>0.32450041998049328</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1061,13 +1048,13 @@
         <v>25</v>
       </c>
       <c r="B35">
-        <v>1760.2670280383761</v>
+        <v>544.35297950576728</v>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>27.504172313099627</v>
+        <v>28.650156816093016</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1075,10 +1062,10 @@
         <v>26</v>
       </c>
       <c r="B36">
-        <v>1769.4590139446582</v>
+        <v>612.81816391088068</v>
       </c>
       <c r="C36">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,16 +1092,16 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>-2.6394285526846715</v>
+        <v>-13.669457229189122</v>
       </c>
       <c r="D40">
-        <v>0.77862858426743387</v>
+        <v>-5.018304007393974</v>
       </c>
       <c r="E40">
-        <v>4.1966857212195396</v>
+        <v>3.6328492144011744</v>
       </c>
       <c r="F40">
-        <v>0.84858559197877992</v>
+        <v>0.32530873961456097</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1125,16 +1112,16 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>-4.4798285841480645</v>
+        <v>-6.6983585819798455</v>
       </c>
       <c r="D41">
-        <v>0.13319197944972672</v>
+        <v>0.38602338518415102</v>
       </c>
       <c r="E41">
-        <v>4.7462125430475179</v>
+        <v>7.4704053523481475</v>
       </c>
       <c r="F41">
-        <v>0.99735751222979241</v>
+        <v>0.989497227549061</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1145,16 +1132,16 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>-5.0264967798682312</v>
+        <v>-4.5262283240569037</v>
       </c>
       <c r="D42">
-        <v>-0.64543660481770715</v>
+        <v>5.404327392578125</v>
       </c>
       <c r="E42">
-        <v>3.7356235702328169</v>
+        <v>15.334883109213154</v>
       </c>
       <c r="F42">
-        <v>0.93351335239121924</v>
+        <v>0.36948258883147278</v>
       </c>
     </row>
   </sheetData>

--- a/result_manuscriptIII.xlsx
+++ b/result_manuscriptIII.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\ChangValiante2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76472638-0EF6-4911-BE33-B252DA6AB119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C3A8F-2698-4A2B-ACFD-215E867F4650}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1898" yWindow="1898" windowWidth="18851" windowHeight="11023" activeTab="1" xr2:uid="{47E7848B-34EC-49A6-998D-9AC1D627B3A3}"/>
+    <workbookView xWindow="12360" yWindow="3060" windowWidth="4110" windowHeight="12540" firstSheet="2" activeTab="2" xr2:uid="{47E7848B-34EC-49A6-998D-9AC1D627B3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="19805000" sheetId="2" r:id="rId2"/>
+    <sheet name="19805003" sheetId="3" r:id="rId3"/>
+    <sheet name="19805005" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="33">
   <si>
     <t>Treatment Group</t>
   </si>
@@ -486,7 +488,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -496,13 +498,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF4AE5E-3D36-4E01-8D19-4FE6EE8834FF}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -578,7 +580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -607,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -645,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -674,7 +676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -706,12 +708,12 @@
         <v>-0.45238095238095238</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -731,7 +733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -751,7 +753,7 @@
         <v>6.9944429386484559E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -765,7 +767,7 @@
         <v>433.28301271125804</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -776,12 +778,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -792,7 +794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -812,7 +814,7 @@
         <v>4.639545227236308E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -832,7 +834,7 @@
         <v>0.74880708738790736</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -852,12 +854,12 @@
         <v>7.4209148172221795E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -877,7 +879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -897,7 +899,7 @@
         <v>2.3086057016801487E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -911,7 +913,7 @@
         <v>7338647277.6300125</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -922,12 +924,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -938,7 +940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -958,7 +960,7 @@
         <v>7.2881588095692007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -978,7 +980,7 @@
         <v>2.1553413097430418E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -998,12 +1000,12 @@
         <v>0.29819585477497634</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1045,7 @@
         <v>0.32450041998049328</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1057,7 +1059,7 @@
         <v>28.650156816093016</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1068,12 +1070,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>0.32530873961456097</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>0.989497227549061</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1142,6 +1144,1179 @@
       </c>
       <c r="F42">
         <v>0.36948258883147278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80FBD0-AC62-4362-9462-50B0B94C5963}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>50.505407999999989</v>
+      </c>
+      <c r="C2">
+        <v>20.457576000000017</v>
+      </c>
+      <c r="D2">
+        <v>0.51982228060807578</v>
+      </c>
+      <c r="E2">
+        <v>31.233545841958037</v>
+      </c>
+      <c r="F2">
+        <v>17.458938084452342</v>
+      </c>
+      <c r="G2">
+        <v>0.3812948505968875</v>
+      </c>
+      <c r="H2">
+        <v>1.2478747975226412E-3</v>
+      </c>
+      <c r="I2">
+        <v>13.9876708984375</v>
+      </c>
+      <c r="J2">
+        <v>25.114227294921875</v>
+      </c>
+      <c r="K2">
+        <v>0.26974209587732179</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>103.86369599999989</v>
+      </c>
+      <c r="C3">
+        <v>69.706368000000111</v>
+      </c>
+      <c r="D3">
+        <v>0.23183693830365459</v>
+      </c>
+      <c r="E3">
+        <v>7.8353713967271972</v>
+      </c>
+      <c r="F3">
+        <v>6.9324910422577624</v>
+      </c>
+      <c r="G3">
+        <v>0.42459124241720619</v>
+      </c>
+      <c r="H3">
+        <v>7.0228978442887779E-5</v>
+      </c>
+      <c r="I3">
+        <v>7.7885894775390625</v>
+      </c>
+      <c r="J3">
+        <v>9.219146728515625</v>
+      </c>
+      <c r="K3">
+        <v>1.0398940066396085E-2</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1.8795795861149243E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.72857142857142865</v>
+      </c>
+      <c r="D6">
+        <v>-0.8</v>
+      </c>
+      <c r="E6">
+        <v>3.0369796432214635E-4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.52998692521296709</v>
+      </c>
+      <c r="J6">
+        <v>0.38571428571428568</v>
+      </c>
+      <c r="K6">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>16725.783042853705</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>16725.783042853705</v>
+      </c>
+      <c r="E10">
+        <v>7.0239950481795619</v>
+      </c>
+      <c r="F10">
+        <v>1.683076482848523E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>40480.995470263908</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2381.235027662583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>57206.778513117613</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-121.01655006864992</v>
+      </c>
+      <c r="D16">
+        <v>-67.37844905714293</v>
+      </c>
+      <c r="E16">
+        <v>-13.74034804563594</v>
+      </c>
+      <c r="F16">
+        <v>1.6830764878205784E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1842.9230154801464</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1842.9230154801464</v>
+      </c>
+      <c r="E22">
+        <v>37.077598702073246</v>
+      </c>
+      <c r="F22">
+        <v>1.2036089420310528E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>844.97627569960855</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>49.704486805859325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>2687.899291179755</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>14.616207077390108</v>
+      </c>
+      <c r="D28">
+        <v>22.365642430849402</v>
+      </c>
+      <c r="E28">
+        <v>30.115077784308696</v>
+      </c>
+      <c r="F28">
+        <v>1.2036279927851723E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>293.99675525579312</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>293.99675525579312</v>
+      </c>
+      <c r="E34">
+        <v>3.0117182003587906</v>
+      </c>
+      <c r="F34">
+        <v>0.10075410325923219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>1659.4994972481391</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>97.617617485184653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>1953.4962525039321</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>-1.9271282447131242</v>
+      </c>
+      <c r="D40">
+        <v>8.9330352783203111</v>
+      </c>
+      <c r="E40">
+        <v>19.793198801353746</v>
+      </c>
+      <c r="F40">
+        <v>0.10075410329148382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99B6D86-495C-4601-B9E1-0537E720635D}">
+  <dimension ref="A1:L42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>48.82195200000001</v>
+      </c>
+      <c r="C2">
+        <v>10.546967999999993</v>
+      </c>
+      <c r="D2">
+        <v>0.35675183305057234</v>
+      </c>
+      <c r="E2">
+        <v>104.07687822581279</v>
+      </c>
+      <c r="F2">
+        <v>115.79813133856486</v>
+      </c>
+      <c r="G2">
+        <v>0.52922102003000093</v>
+      </c>
+      <c r="H2">
+        <v>5.6024136040194739E-3</v>
+      </c>
+      <c r="I2">
+        <v>2.861114501953125</v>
+      </c>
+      <c r="J2">
+        <v>2.225311279296875</v>
+      </c>
+      <c r="K2">
+        <v>0.29258660302645001</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>76.341886000000159</v>
+      </c>
+      <c r="C3">
+        <v>24.721825999999965</v>
+      </c>
+      <c r="D3">
+        <v>7.1925815254022793E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.071974167966439</v>
+      </c>
+      <c r="F3">
+        <v>2.8811915784852173</v>
+      </c>
+      <c r="G3">
+        <v>0.74887684224117779</v>
+      </c>
+      <c r="H3">
+        <v>1.5901494048599862E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.17901611328125</v>
+      </c>
+      <c r="J3">
+        <v>1.589508056640625</v>
+      </c>
+      <c r="K3">
+        <v>0.40209759744016893</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>25.214109999998982</v>
+      </c>
+      <c r="C4">
+        <v>7.0914210000005369</v>
+      </c>
+      <c r="E4">
+        <v>2.3989373368237046</v>
+      </c>
+      <c r="F4">
+        <v>2.5697575575984124</v>
+      </c>
+      <c r="H4">
+        <v>1.4544759862259782E-2</v>
+      </c>
+      <c r="I4">
+        <v>5.404327392578125</v>
+      </c>
+      <c r="J4">
+        <v>6.675933837890625</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>7.9527283115616491E-4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>7.9527283115616491E-4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.90660859460359366</v>
+      </c>
+      <c r="J6">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K6">
+        <v>-2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>8241.0399747109768</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4120.5199873554884</v>
+      </c>
+      <c r="E10">
+        <v>10.422409324913911</v>
+      </c>
+      <c r="F10">
+        <v>1.9903641749786406E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>5139.57552094739</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>395.35196314979925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>13380.615495658367</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-68.141813489011724</v>
+      </c>
+      <c r="D16">
+        <v>-38.932939428571572</v>
+      </c>
+      <c r="E16">
+        <v>-9.7240653681314271</v>
+      </c>
+      <c r="F16">
+        <v>9.8198191374104793E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-17.159481512600699</v>
+      </c>
+      <c r="D17">
+        <v>19.069667904762383</v>
+      </c>
+      <c r="E17">
+        <v>55.298817322125466</v>
+      </c>
+      <c r="F17">
+        <v>0.37433512144356096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>20.878776296102615</v>
+      </c>
+      <c r="D18">
+        <v>58.002607333333955</v>
+      </c>
+      <c r="E18">
+        <v>95.126438370565296</v>
+      </c>
+      <c r="F18">
+        <v>3.1860685962358248E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>58942.348068236199</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>29471.174034118099</v>
+      </c>
+      <c r="E22">
+        <v>12.592876291617459</v>
+      </c>
+      <c r="F22">
+        <v>9.0839134355448069E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>30423.967771252181</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>2340.3052131732447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>89366.315839488379</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>51.371201688476006</v>
+      </c>
+      <c r="D28">
+        <v>122.43675084208438</v>
+      </c>
+      <c r="E28">
+        <v>193.50229999569274</v>
+      </c>
+      <c r="F28">
+        <v>1.4730300328457124E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>34.029651390222028</v>
+      </c>
+      <c r="D29">
+        <v>122.17561666726365</v>
+      </c>
+      <c r="E29">
+        <v>210.32158194430528</v>
+      </c>
+      <c r="F29">
+        <v>7.5559272750518325E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-90.58387081600371</v>
+      </c>
+      <c r="D30">
+        <v>-0.26113417482072521</v>
+      </c>
+      <c r="E30">
+        <v>90.06160246636226</v>
+      </c>
+      <c r="F30">
+        <v>0.99996787171359836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>18.841641191800594</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>9.4208205959002971</v>
+      </c>
+      <c r="E34">
+        <v>2.2053571428571432</v>
+      </c>
+      <c r="F34">
+        <v>0.14973521947288695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>55.53325824951753</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>4.2717890961167333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>74.374899441318121</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>-2.9831981642412915</v>
+      </c>
+      <c r="D40">
+        <v>5.2983601888020981E-2</v>
+      </c>
+      <c r="E40">
+        <v>3.0891653680173334</v>
+      </c>
+      <c r="F40">
+        <v>0.99883024646781315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>-6.5210672934415186</v>
+      </c>
+      <c r="D41">
+        <v>-2.7551472981770839</v>
+      </c>
+      <c r="E41">
+        <v>1.0107726970873503</v>
+      </c>
+      <c r="F41">
+        <v>0.16912685268863714</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>-6.667050578066851</v>
+      </c>
+      <c r="D42">
+        <v>-2.8081309000651049</v>
+      </c>
+      <c r="E42">
+        <v>1.0507887779366407</v>
+      </c>
+      <c r="F42">
+        <v>0.17193729309461059</v>
       </c>
     </row>
   </sheetData>
